--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{035FEE95-2F87-4ED5-BE3B-B26E19C11B75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602CF9B-3106-8A4E-9B4A-612DAF2DA0BF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="7512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="2180" windowWidth="26320" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC03" sheetId="1" r:id="rId1"/>
-    <sheet name="TC01" sheetId="2" r:id="rId2"/>
+    <sheet name="TC02" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:V24"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -46,83 +39,44 @@
     <t>year</t>
   </si>
   <si>
-    <t>primaryaddress</t>
-  </si>
-  <si>
-    <t>secondryaddress</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>postalcode</t>
-  </si>
-  <si>
-    <t>phonenumber</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>Primary Address</t>
-  </si>
-  <si>
-    <t>Secondary Address</t>
-  </si>
-  <si>
-    <t>Muzaffarpur</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>1235@gmail.com</t>
-  </si>
-  <si>
-    <t>00000</t>
-  </si>
-  <si>
     <t>test902@gmail.com</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>waitfor</t>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>FirstNameData</t>
+  </si>
+  <si>
+    <t>LastNameData</t>
   </si>
   <si>
     <t>9999999999</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>SucessMsg</t>
-  </si>
-  <si>
-    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,9 +92,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,17 +143,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -199,17 +151,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,168 +464,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
